--- a/任务分配.xlsx
+++ b/任务分配.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,6 +139,57 @@
   </si>
   <si>
     <t>赵文发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>github</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薛云鹏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郝龙杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩华园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵文发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>165hhy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zwfengineer</t>
+  </si>
+  <si>
+    <t>李焕琴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xypstore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LiHuanQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>haolongjie1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>by1354401165</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -476,7 +528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -614,4 +666,80 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="32.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>